--- a/Scene编辑器组件.xlsx
+++ b/Scene编辑器组件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25100" windowHeight="13620" activeTab="1"/>
+    <workbookView windowWidth="19360" windowHeight="14880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>说明：</t>
   </si>
@@ -48,43 +48,109 @@
     <t>精灵</t>
   </si>
   <si>
+    <t>精灵组件是一个渲染组件，对应cocos2d-x的CCSprite，用于显示png图片</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改</t>
+  </si>
+  <si>
     <t>文件</t>
+  </si>
+  <si>
+    <t>png文件的路径</t>
   </si>
   <si>
     <t>地图</t>
   </si>
   <si>
-    <t>文件路径</t>
+    <t>地图组件是一个渲染组件，对应cocos2d-x的CCTMXTiledMap，用于显示tmx格式的地图文件</t>
+  </si>
+  <si>
+    <t>tmx文件的路径</t>
   </si>
   <si>
     <t>粒子</t>
   </si>
   <si>
-    <t>Tmx地图（Filepath）</t>
+    <t>粒子组件是一个渲染组件，对应cocos2d-x的CCParticleSystemQuad，用于显示plist格式的粒子文件</t>
+  </si>
+  <si>
+    <t>plist文件的路径</t>
   </si>
   <si>
     <t>预览（播放控制）</t>
   </si>
   <si>
-    <t>粒子（文件）</t>
+    <t>播放：播放粒子</t>
   </si>
   <si>
-    <t>骨骼组件</t>
+    <t>停止：停止例子</t>
   </si>
   <si>
-    <t>骨骼（文件，骨骼名字）</t>
+    <t>骨骼</t>
+  </si>
+  <si>
+    <t>骨骼动画组件是一个渲染组件，对应cocos2d-x extension下面的Armature，用于显示Cocostudio动画编辑器导出的json格式和exportjson格式的动画文件</t>
+  </si>
+  <si>
+    <t>json（碎图）格式和exportjson(合图)文件的路径</t>
+  </si>
+  <si>
+    <t>动作列表</t>
+  </si>
+  <si>
+    <t>此动画文件所包含的动作列表</t>
+  </si>
+  <si>
+    <t>播放：播放当前动作列表所选择的动作</t>
+  </si>
+  <si>
+    <t>停止：停止播放动画</t>
   </si>
   <si>
     <t>声音</t>
   </si>
   <si>
-    <t>声音（循环，播放控制，文件）</t>
+    <t>音效组件不是一个渲染组件，对应cocos2d-x CocosDenshion，支持mp3和wav格式（为全平台考虑）文件</t>
+  </si>
+  <si>
+    <t>mp3和wav文件的路径</t>
+  </si>
+  <si>
+    <t>循环</t>
+  </si>
+  <si>
+    <t>设置是否循环播放</t>
+  </si>
+  <si>
+    <t>播放控制</t>
+  </si>
+  <si>
+    <t>播放：播放音效</t>
+  </si>
+  <si>
+    <t>停止：停止播放音效</t>
   </si>
   <si>
     <t>UI</t>
   </si>
   <si>
+    <t>UI组件是一个渲染组件，对应cocos2d-x extension下面的CocoGUILIB，用于显示Cocostudio UI编辑器导出的json格式和exportjson格式的动画文件</t>
+  </si>
+  <si>
+    <t>json（碎图）和exportjson(合图)文件的路径</t>
+  </si>
+  <si>
     <t>属性</t>
+  </si>
+  <si>
+    <t>UI组件不是一个渲染组件，用于记录Cocostudio 数据编辑器导出的json格式的数据文件</t>
+  </si>
+  <si>
+    <t>json数据文件的路径</t>
   </si>
 </sst>
 </file>
@@ -92,10 +158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -155,7 +221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -169,11 +235,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -528,11 +598,11 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="69.375" customWidth="1"/>
+    <col min="3" max="3" width="69.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="2:3">
@@ -561,19 +631,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:HR40"/>
+  <dimension ref="A1:HR38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="55.25" customWidth="1"/>
-    <col min="4" max="4" width="26.875" customWidth="1"/>
-    <col min="5" max="5" width="67.125" customWidth="1"/>
-    <col min="6" max="6" width="3.375" customWidth="1"/>
+    <col min="1" max="2" width="15.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="54.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="32.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="67.1296296296296" customWidth="1"/>
+    <col min="6" max="6" width="3.37962962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:226">
@@ -819,11 +889,15 @@
         <v>9</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1278,8 +1352,12 @@
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1727,11 +1805,16 @@
     </row>
     <row r="6" spans="1:226">
       <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="4"/>
@@ -1959,7 +2042,9 @@
     <row r="7" spans="1:226">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -2185,7 +2270,13 @@
     <row r="8" spans="1:226">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -2411,7 +2502,9 @@
     <row r="9" spans="1:226">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -2857,14 +2950,19 @@
       <c r="HQ10" s="4"/>
       <c r="HR10" s="4"/>
     </row>
-    <row r="11" spans="1:226">
+    <row r="11" ht="28.8" spans="1:226">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" t="s">
-        <v>14</v>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -3090,10 +3188,13 @@
     </row>
     <row r="12" spans="1:226">
       <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" t="s">
-        <v>15</v>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -3319,11 +3420,10 @@
     </row>
     <row r="13" spans="1:226">
       <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -3548,8 +3648,14 @@
     </row>
     <row r="14" spans="1:226">
       <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -3774,8 +3880,12 @@
     </row>
     <row r="15" spans="1:226">
       <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -4221,14 +4331,19 @@
       <c r="HQ16" s="4"/>
       <c r="HR16" s="4"/>
     </row>
-    <row r="17" spans="1:226">
-      <c r="A17" s="5" t="s">
-        <v>17</v>
+    <row r="17" ht="28.8" spans="1:226">
+      <c r="A17" s="7" t="s">
+        <v>24</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" t="s">
-        <v>15</v>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -4453,11 +4568,14 @@
       <c r="HR17" s="4"/>
     </row>
     <row r="18" spans="1:226">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" t="s">
-        <v>18</v>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -4681,10 +4799,16 @@
       <c r="HQ18" s="4"/>
       <c r="HR18" s="4"/>
     </row>
-    <row r="19" spans="1:226">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+    <row r="19" ht="19" customHeight="1" spans="1:226">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -4908,9 +5032,15 @@
       <c r="HR19" s="4"/>
     </row>
     <row r="20" spans="1:226">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -5133,10 +5263,14 @@
       <c r="HQ20" s="4"/>
       <c r="HR20" s="4"/>
     </row>
-    <row r="21" spans="1:226">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+    <row r="21" customFormat="1" spans="1:226">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -5582,14 +5716,19 @@
       <c r="HQ22" s="4"/>
       <c r="HR22" s="4"/>
     </row>
-    <row r="23" spans="1:226">
+    <row r="23" ht="28.8" spans="1:226">
       <c r="A23" s="5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" t="s">
-        <v>20</v>
+      <c r="C23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -5816,7 +5955,13 @@
     <row r="24" spans="1:226">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -6042,7 +6187,13 @@
     <row r="25" spans="1:226">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -6268,7 +6419,13 @@
     <row r="26" spans="1:226">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -6494,7 +6651,11 @@
     <row r="27" spans="1:226">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -6717,10 +6878,7 @@
       <c r="HQ27" s="4"/>
       <c r="HR27" s="4"/>
     </row>
-    <row r="28" spans="1:226">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+    <row r="28" s="2" customFormat="1" spans="6:226">
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -6943,7 +7101,20 @@
       <c r="HQ28" s="4"/>
       <c r="HR28" s="4"/>
     </row>
-    <row r="29" s="2" customFormat="1" spans="6:226">
+    <row r="29" spans="1:226">
+      <c r="A29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -7167,14 +7338,11 @@
       <c r="HR29" s="4"/>
     </row>
     <row r="30" spans="1:226">
-      <c r="A30" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -7400,7 +7568,13 @@
     <row r="31" spans="1:226">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -7626,7 +7800,9 @@
     <row r="32" spans="1:226">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -7849,10 +8025,7 @@
       <c r="HQ32" s="4"/>
       <c r="HR32" s="4"/>
     </row>
-    <row r="33" spans="1:226">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+    <row r="33" s="2" customFormat="1" spans="6:226">
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -8075,7 +8248,20 @@
       <c r="HQ33" s="4"/>
       <c r="HR33" s="4"/>
     </row>
-    <row r="34" s="2" customFormat="1" spans="6:226">
+    <row r="34" spans="1:226">
+      <c r="A34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -8299,11 +8485,11 @@
       <c r="HR34" s="4"/>
     </row>
     <row r="35" spans="1:226">
-      <c r="A35" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -8529,9 +8715,12 @@
     <row r="36" spans="1:226">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" t="s">
-        <v>10</v>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -8758,7 +8947,9 @@
     <row r="37" spans="1:226">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -8981,10 +9172,7 @@
       <c r="HQ37" s="4"/>
       <c r="HR37" s="4"/>
     </row>
-    <row r="38" spans="1:226">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+    <row r="38" s="2" customFormat="1" spans="6:226">
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -9207,480 +9395,48 @@
       <c r="HQ38" s="4"/>
       <c r="HR38" s="4"/>
     </row>
-    <row r="39" spans="1:226">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="4"/>
-      <c r="AM39" s="4"/>
-      <c r="AN39" s="4"/>
-      <c r="AO39" s="4"/>
-      <c r="AP39" s="4"/>
-      <c r="AQ39" s="4"/>
-      <c r="AR39" s="4"/>
-      <c r="AS39" s="4"/>
-      <c r="AT39" s="4"/>
-      <c r="AU39" s="4"/>
-      <c r="AV39" s="4"/>
-      <c r="AW39" s="4"/>
-      <c r="AX39" s="4"/>
-      <c r="AY39" s="4"/>
-      <c r="AZ39" s="4"/>
-      <c r="BA39" s="4"/>
-      <c r="BB39" s="4"/>
-      <c r="BC39" s="4"/>
-      <c r="BD39" s="4"/>
-      <c r="BE39" s="4"/>
-      <c r="BF39" s="4"/>
-      <c r="BG39" s="4"/>
-      <c r="BH39" s="4"/>
-      <c r="BI39" s="4"/>
-      <c r="BJ39" s="4"/>
-      <c r="BK39" s="4"/>
-      <c r="BL39" s="4"/>
-      <c r="BM39" s="4"/>
-      <c r="BN39" s="4"/>
-      <c r="BO39" s="4"/>
-      <c r="BP39" s="4"/>
-      <c r="BQ39" s="4"/>
-      <c r="BR39" s="4"/>
-      <c r="BS39" s="4"/>
-      <c r="BT39" s="4"/>
-      <c r="BU39" s="4"/>
-      <c r="BV39" s="4"/>
-      <c r="BW39" s="4"/>
-      <c r="BX39" s="4"/>
-      <c r="BY39" s="4"/>
-      <c r="BZ39" s="4"/>
-      <c r="CA39" s="4"/>
-      <c r="CB39" s="4"/>
-      <c r="CC39" s="4"/>
-      <c r="CD39" s="4"/>
-      <c r="CE39" s="4"/>
-      <c r="CF39" s="4"/>
-      <c r="CG39" s="4"/>
-      <c r="CH39" s="4"/>
-      <c r="CI39" s="4"/>
-      <c r="CJ39" s="4"/>
-      <c r="CK39" s="4"/>
-      <c r="CL39" s="4"/>
-      <c r="CM39" s="4"/>
-      <c r="CN39" s="4"/>
-      <c r="CO39" s="4"/>
-      <c r="CP39" s="4"/>
-      <c r="CQ39" s="4"/>
-      <c r="CR39" s="4"/>
-      <c r="CS39" s="4"/>
-      <c r="CT39" s="4"/>
-      <c r="CU39" s="4"/>
-      <c r="CV39" s="4"/>
-      <c r="CW39" s="4"/>
-      <c r="CX39" s="4"/>
-      <c r="CY39" s="4"/>
-      <c r="CZ39" s="4"/>
-      <c r="DA39" s="4"/>
-      <c r="DB39" s="4"/>
-      <c r="DC39" s="4"/>
-      <c r="DD39" s="4"/>
-      <c r="DE39" s="4"/>
-      <c r="DF39" s="4"/>
-      <c r="DG39" s="4"/>
-      <c r="DH39" s="4"/>
-      <c r="DI39" s="4"/>
-      <c r="DJ39" s="4"/>
-      <c r="DK39" s="4"/>
-      <c r="DL39" s="4"/>
-      <c r="DM39" s="4"/>
-      <c r="DN39" s="4"/>
-      <c r="DO39" s="4"/>
-      <c r="DP39" s="4"/>
-      <c r="DQ39" s="4"/>
-      <c r="DR39" s="4"/>
-      <c r="DS39" s="4"/>
-      <c r="DT39" s="4"/>
-      <c r="DU39" s="4"/>
-      <c r="DV39" s="4"/>
-      <c r="DW39" s="4"/>
-      <c r="DX39" s="4"/>
-      <c r="DY39" s="4"/>
-      <c r="DZ39" s="4"/>
-      <c r="EA39" s="4"/>
-      <c r="EB39" s="4"/>
-      <c r="EC39" s="4"/>
-      <c r="ED39" s="4"/>
-      <c r="EE39" s="4"/>
-      <c r="EF39" s="4"/>
-      <c r="EG39" s="4"/>
-      <c r="EH39" s="4"/>
-      <c r="EI39" s="4"/>
-      <c r="EJ39" s="4"/>
-      <c r="EK39" s="4"/>
-      <c r="EL39" s="4"/>
-      <c r="EM39" s="4"/>
-      <c r="EN39" s="4"/>
-      <c r="EO39" s="4"/>
-      <c r="EP39" s="4"/>
-      <c r="EQ39" s="4"/>
-      <c r="ER39" s="4"/>
-      <c r="ES39" s="4"/>
-      <c r="ET39" s="4"/>
-      <c r="EU39" s="4"/>
-      <c r="EV39" s="4"/>
-      <c r="EW39" s="4"/>
-      <c r="EX39" s="4"/>
-      <c r="EY39" s="4"/>
-      <c r="EZ39" s="4"/>
-      <c r="FA39" s="4"/>
-      <c r="FB39" s="4"/>
-      <c r="FC39" s="4"/>
-      <c r="FD39" s="4"/>
-      <c r="FE39" s="4"/>
-      <c r="FF39" s="4"/>
-      <c r="FG39" s="4"/>
-      <c r="FH39" s="4"/>
-      <c r="FI39" s="4"/>
-      <c r="FJ39" s="4"/>
-      <c r="FK39" s="4"/>
-      <c r="FL39" s="4"/>
-      <c r="FM39" s="4"/>
-      <c r="FN39" s="4"/>
-      <c r="FO39" s="4"/>
-      <c r="FP39" s="4"/>
-      <c r="FQ39" s="4"/>
-      <c r="FR39" s="4"/>
-      <c r="FS39" s="4"/>
-      <c r="FT39" s="4"/>
-      <c r="FU39" s="4"/>
-      <c r="FV39" s="4"/>
-      <c r="FW39" s="4"/>
-      <c r="FX39" s="4"/>
-      <c r="FY39" s="4"/>
-      <c r="FZ39" s="4"/>
-      <c r="GA39" s="4"/>
-      <c r="GB39" s="4"/>
-      <c r="GC39" s="4"/>
-      <c r="GD39" s="4"/>
-      <c r="GE39" s="4"/>
-      <c r="GF39" s="4"/>
-      <c r="GG39" s="4"/>
-      <c r="GH39" s="4"/>
-      <c r="GI39" s="4"/>
-      <c r="GJ39" s="4"/>
-      <c r="GK39" s="4"/>
-      <c r="GL39" s="4"/>
-      <c r="GM39" s="4"/>
-      <c r="GN39" s="4"/>
-      <c r="GO39" s="4"/>
-      <c r="GP39" s="4"/>
-      <c r="GQ39" s="4"/>
-      <c r="GR39" s="4"/>
-      <c r="GS39" s="4"/>
-      <c r="GT39" s="4"/>
-      <c r="GU39" s="4"/>
-      <c r="GV39" s="4"/>
-      <c r="GW39" s="4"/>
-      <c r="GX39" s="4"/>
-      <c r="GY39" s="4"/>
-      <c r="GZ39" s="4"/>
-      <c r="HA39" s="4"/>
-      <c r="HB39" s="4"/>
-      <c r="HC39" s="4"/>
-      <c r="HD39" s="4"/>
-      <c r="HE39" s="4"/>
-      <c r="HF39" s="4"/>
-      <c r="HG39" s="4"/>
-      <c r="HH39" s="4"/>
-      <c r="HI39" s="4"/>
-      <c r="HJ39" s="4"/>
-      <c r="HK39" s="4"/>
-      <c r="HL39" s="4"/>
-      <c r="HM39" s="4"/>
-      <c r="HN39" s="4"/>
-      <c r="HO39" s="4"/>
-      <c r="HP39" s="4"/>
-      <c r="HQ39" s="4"/>
-      <c r="HR39" s="4"/>
-    </row>
-    <row r="40" s="2" customFormat="1" spans="6:226">
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4"/>
-      <c r="AF40" s="4"/>
-      <c r="AG40" s="4"/>
-      <c r="AH40" s="4"/>
-      <c r="AI40" s="4"/>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="4"/>
-      <c r="AL40" s="4"/>
-      <c r="AM40" s="4"/>
-      <c r="AN40" s="4"/>
-      <c r="AO40" s="4"/>
-      <c r="AP40" s="4"/>
-      <c r="AQ40" s="4"/>
-      <c r="AR40" s="4"/>
-      <c r="AS40" s="4"/>
-      <c r="AT40" s="4"/>
-      <c r="AU40" s="4"/>
-      <c r="AV40" s="4"/>
-      <c r="AW40" s="4"/>
-      <c r="AX40" s="4"/>
-      <c r="AY40" s="4"/>
-      <c r="AZ40" s="4"/>
-      <c r="BA40" s="4"/>
-      <c r="BB40" s="4"/>
-      <c r="BC40" s="4"/>
-      <c r="BD40" s="4"/>
-      <c r="BE40" s="4"/>
-      <c r="BF40" s="4"/>
-      <c r="BG40" s="4"/>
-      <c r="BH40" s="4"/>
-      <c r="BI40" s="4"/>
-      <c r="BJ40" s="4"/>
-      <c r="BK40" s="4"/>
-      <c r="BL40" s="4"/>
-      <c r="BM40" s="4"/>
-      <c r="BN40" s="4"/>
-      <c r="BO40" s="4"/>
-      <c r="BP40" s="4"/>
-      <c r="BQ40" s="4"/>
-      <c r="BR40" s="4"/>
-      <c r="BS40" s="4"/>
-      <c r="BT40" s="4"/>
-      <c r="BU40" s="4"/>
-      <c r="BV40" s="4"/>
-      <c r="BW40" s="4"/>
-      <c r="BX40" s="4"/>
-      <c r="BY40" s="4"/>
-      <c r="BZ40" s="4"/>
-      <c r="CA40" s="4"/>
-      <c r="CB40" s="4"/>
-      <c r="CC40" s="4"/>
-      <c r="CD40" s="4"/>
-      <c r="CE40" s="4"/>
-      <c r="CF40" s="4"/>
-      <c r="CG40" s="4"/>
-      <c r="CH40" s="4"/>
-      <c r="CI40" s="4"/>
-      <c r="CJ40" s="4"/>
-      <c r="CK40" s="4"/>
-      <c r="CL40" s="4"/>
-      <c r="CM40" s="4"/>
-      <c r="CN40" s="4"/>
-      <c r="CO40" s="4"/>
-      <c r="CP40" s="4"/>
-      <c r="CQ40" s="4"/>
-      <c r="CR40" s="4"/>
-      <c r="CS40" s="4"/>
-      <c r="CT40" s="4"/>
-      <c r="CU40" s="4"/>
-      <c r="CV40" s="4"/>
-      <c r="CW40" s="4"/>
-      <c r="CX40" s="4"/>
-      <c r="CY40" s="4"/>
-      <c r="CZ40" s="4"/>
-      <c r="DA40" s="4"/>
-      <c r="DB40" s="4"/>
-      <c r="DC40" s="4"/>
-      <c r="DD40" s="4"/>
-      <c r="DE40" s="4"/>
-      <c r="DF40" s="4"/>
-      <c r="DG40" s="4"/>
-      <c r="DH40" s="4"/>
-      <c r="DI40" s="4"/>
-      <c r="DJ40" s="4"/>
-      <c r="DK40" s="4"/>
-      <c r="DL40" s="4"/>
-      <c r="DM40" s="4"/>
-      <c r="DN40" s="4"/>
-      <c r="DO40" s="4"/>
-      <c r="DP40" s="4"/>
-      <c r="DQ40" s="4"/>
-      <c r="DR40" s="4"/>
-      <c r="DS40" s="4"/>
-      <c r="DT40" s="4"/>
-      <c r="DU40" s="4"/>
-      <c r="DV40" s="4"/>
-      <c r="DW40" s="4"/>
-      <c r="DX40" s="4"/>
-      <c r="DY40" s="4"/>
-      <c r="DZ40" s="4"/>
-      <c r="EA40" s="4"/>
-      <c r="EB40" s="4"/>
-      <c r="EC40" s="4"/>
-      <c r="ED40" s="4"/>
-      <c r="EE40" s="4"/>
-      <c r="EF40" s="4"/>
-      <c r="EG40" s="4"/>
-      <c r="EH40" s="4"/>
-      <c r="EI40" s="4"/>
-      <c r="EJ40" s="4"/>
-      <c r="EK40" s="4"/>
-      <c r="EL40" s="4"/>
-      <c r="EM40" s="4"/>
-      <c r="EN40" s="4"/>
-      <c r="EO40" s="4"/>
-      <c r="EP40" s="4"/>
-      <c r="EQ40" s="4"/>
-      <c r="ER40" s="4"/>
-      <c r="ES40" s="4"/>
-      <c r="ET40" s="4"/>
-      <c r="EU40" s="4"/>
-      <c r="EV40" s="4"/>
-      <c r="EW40" s="4"/>
-      <c r="EX40" s="4"/>
-      <c r="EY40" s="4"/>
-      <c r="EZ40" s="4"/>
-      <c r="FA40" s="4"/>
-      <c r="FB40" s="4"/>
-      <c r="FC40" s="4"/>
-      <c r="FD40" s="4"/>
-      <c r="FE40" s="4"/>
-      <c r="FF40" s="4"/>
-      <c r="FG40" s="4"/>
-      <c r="FH40" s="4"/>
-      <c r="FI40" s="4"/>
-      <c r="FJ40" s="4"/>
-      <c r="FK40" s="4"/>
-      <c r="FL40" s="4"/>
-      <c r="FM40" s="4"/>
-      <c r="FN40" s="4"/>
-      <c r="FO40" s="4"/>
-      <c r="FP40" s="4"/>
-      <c r="FQ40" s="4"/>
-      <c r="FR40" s="4"/>
-      <c r="FS40" s="4"/>
-      <c r="FT40" s="4"/>
-      <c r="FU40" s="4"/>
-      <c r="FV40" s="4"/>
-      <c r="FW40" s="4"/>
-      <c r="FX40" s="4"/>
-      <c r="FY40" s="4"/>
-      <c r="FZ40" s="4"/>
-      <c r="GA40" s="4"/>
-      <c r="GB40" s="4"/>
-      <c r="GC40" s="4"/>
-      <c r="GD40" s="4"/>
-      <c r="GE40" s="4"/>
-      <c r="GF40" s="4"/>
-      <c r="GG40" s="4"/>
-      <c r="GH40" s="4"/>
-      <c r="GI40" s="4"/>
-      <c r="GJ40" s="4"/>
-      <c r="GK40" s="4"/>
-      <c r="GL40" s="4"/>
-      <c r="GM40" s="4"/>
-      <c r="GN40" s="4"/>
-      <c r="GO40" s="4"/>
-      <c r="GP40" s="4"/>
-      <c r="GQ40" s="4"/>
-      <c r="GR40" s="4"/>
-      <c r="GS40" s="4"/>
-      <c r="GT40" s="4"/>
-      <c r="GU40" s="4"/>
-      <c r="GV40" s="4"/>
-      <c r="GW40" s="4"/>
-      <c r="GX40" s="4"/>
-      <c r="GY40" s="4"/>
-      <c r="GZ40" s="4"/>
-      <c r="HA40" s="4"/>
-      <c r="HB40" s="4"/>
-      <c r="HC40" s="4"/>
-      <c r="HD40" s="4"/>
-      <c r="HE40" s="4"/>
-      <c r="HF40" s="4"/>
-      <c r="HG40" s="4"/>
-      <c r="HH40" s="4"/>
-      <c r="HI40" s="4"/>
-      <c r="HJ40" s="4"/>
-      <c r="HK40" s="4"/>
-      <c r="HL40" s="4"/>
-      <c r="HM40" s="4"/>
-      <c r="HN40" s="4"/>
-      <c r="HO40" s="4"/>
-      <c r="HP40" s="4"/>
-      <c r="HQ40" s="4"/>
-      <c r="HR40" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="40">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A34:A37"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B34:B37"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C11:C15"/>
     <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9699,7 +9455,7 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Scene编辑器组件.xlsx
+++ b/Scene编辑器组件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19360" windowHeight="14880" activeTab="1"/>
+    <workbookView windowWidth="20360" windowHeight="8960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>说明：</t>
   </si>
@@ -54,7 +54,7 @@
     <t>名字</t>
   </si>
   <si>
-    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改</t>
+    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCSprite）</t>
   </si>
   <si>
     <t>文件</t>
@@ -69,6 +69,9 @@
     <t>地图组件是一个渲染组件，对应cocos2d-x的CCTMXTiledMap，用于显示tmx格式的地图文件</t>
   </si>
   <si>
+    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCTMXTiledMap）</t>
+  </si>
+  <si>
     <t>tmx文件的路径</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
   </si>
   <si>
     <t>粒子组件是一个渲染组件，对应cocos2d-x的CCParticleSystemQuad，用于显示plist格式的粒子文件</t>
+  </si>
+  <si>
+    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCParticleSystemQuad）</t>
   </si>
   <si>
     <t>plist文件的路径</t>
@@ -94,6 +100,9 @@
   </si>
   <si>
     <t>骨骼动画组件是一个渲染组件，对应cocos2d-x extension下面的Armature，用于显示Cocostudio动画编辑器导出的json格式和exportjson格式的动画文件</t>
+  </si>
+  <si>
+    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCArmature）</t>
   </si>
   <si>
     <t>json（碎图）格式和exportjson(合图)文件的路径</t>
@@ -115,6 +124,9 @@
   </si>
   <si>
     <t>音效组件不是一个渲染组件，对应cocos2d-x CocosDenshion，支持mp3和wav格式（为全平台考虑）文件</t>
+  </si>
+  <si>
+    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCComAudio）</t>
   </si>
   <si>
     <t>mp3和wav文件的路径</t>
@@ -141,6 +153,9 @@
     <t>UI组件是一个渲染组件，对应cocos2d-x extension下面的CocoGUILIB，用于显示Cocostudio UI编辑器导出的json格式和exportjson格式的动画文件</t>
   </si>
   <si>
+    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（GUIComponent）</t>
+  </si>
+  <si>
     <t>json（碎图）和exportjson(合图)文件的路径</t>
   </si>
   <si>
@@ -148,6 +163,9 @@
   </si>
   <si>
     <t>UI组件不是一个渲染组件，用于记录Cocostudio 数据编辑器导出的json格式的数据文件</t>
+  </si>
+  <si>
+    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCComAttribute）</t>
   </si>
   <si>
     <t>json数据文件的路径</t>
@@ -158,10 +176,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -633,8 +651,8 @@
   <sheetPr/>
   <dimension ref="A1:HR38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1815,7 +1833,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -2275,7 +2293,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -2952,17 +2970,17 @@
     </row>
     <row r="11" ht="28.8" spans="1:226">
       <c r="A11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -3194,7 +3212,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -3651,10 +3669,10 @@
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -3884,7 +3902,7 @@
       <c r="C15" s="10"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -4333,17 +4351,17 @@
     </row>
     <row r="17" ht="28.8" spans="1:226">
       <c r="A17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -4575,7 +4593,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -4804,10 +4822,10 @@
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -5036,10 +5054,10 @@
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -5263,13 +5281,13 @@
       <c r="HQ20" s="4"/>
       <c r="HR20" s="4"/>
     </row>
-    <row r="21" customFormat="1" spans="1:226">
+    <row r="21" spans="1:226">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -5718,17 +5736,17 @@
     </row>
     <row r="23" ht="28.8" spans="1:226">
       <c r="A23" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -5960,7 +5978,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -6189,10 +6207,10 @@
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -6421,10 +6439,10 @@
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -6654,7 +6672,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -7103,17 +7121,17 @@
     </row>
     <row r="29" spans="1:226">
       <c r="A29" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -7573,7 +7591,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -8250,17 +8268,17 @@
     </row>
     <row r="34" spans="1:226">
       <c r="A34" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -8720,7 +8738,7 @@
         <v>13</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>

--- a/Scene编辑器组件.xlsx
+++ b/Scene编辑器组件.xlsx
@@ -48,127 +48,127 @@
     <t>精灵</t>
   </si>
   <si>
-    <t>精灵组件是一个渲染组件，对应cocos2d-x的CCSprite，用于显示png图片</t>
+    <t>精灵组件是一个渲染组件，对应cocos2d-x的CCSprite，加载png图片。</t>
   </si>
   <si>
     <t>名字</t>
   </si>
   <si>
-    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCSprite）</t>
+    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCSprite）。</t>
   </si>
   <si>
     <t>文件</t>
   </si>
   <si>
-    <t>png文件的路径</t>
+    <t>png文件的路径。</t>
   </si>
   <si>
     <t>地图</t>
   </si>
   <si>
-    <t>地图组件是一个渲染组件，对应cocos2d-x的CCTMXTiledMap，用于显示tmx格式的地图文件</t>
+    <t>地图组件是一个渲染组件，对应cocos2d-x的CCTMXTiledMap，用于加载tmx格式的地图文件。</t>
   </si>
   <si>
-    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCTMXTiledMap）</t>
+    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCTMXTiledMap）。</t>
   </si>
   <si>
-    <t>tmx文件的路径</t>
+    <t>tmx文件的路径。</t>
   </si>
   <si>
     <t>粒子</t>
   </si>
   <si>
-    <t>粒子组件是一个渲染组件，对应cocos2d-x的CCParticleSystemQuad，用于显示plist格式的粒子文件</t>
+    <t>粒子组件是一个渲染组件，对应cocos2d-x的CCParticleSystemQuad，用于加载plist格式的粒子文件。</t>
   </si>
   <si>
-    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCParticleSystemQuad）</t>
+    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCParticleSystemQuad）。</t>
   </si>
   <si>
-    <t>plist文件的路径</t>
+    <t>plist文件的路径。</t>
   </si>
   <si>
     <t>预览（播放控制）</t>
   </si>
   <si>
-    <t>播放：播放粒子</t>
+    <t>播放：播放粒子。</t>
   </si>
   <si>
-    <t>停止：停止例子</t>
+    <t>停止：停止例子。</t>
   </si>
   <si>
     <t>骨骼</t>
   </si>
   <si>
-    <t>骨骼动画组件是一个渲染组件，对应cocos2d-x extension下面的Armature，用于显示Cocostudio动画编辑器导出的json格式和exportjson格式的动画文件</t>
+    <t>骨骼动画组件是一个渲染组件，对应cocos2d-x extension下面的Armature，用于加载Cocostudio动画编辑器导出的json格式和exportjson格式的动画文件。</t>
   </si>
   <si>
-    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCArmature）</t>
+    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCArmature）。</t>
   </si>
   <si>
-    <t>json（碎图）格式和exportjson(合图)文件的路径</t>
+    <t>json（碎图）格式和exportjson(合图)文件的路径。</t>
   </si>
   <si>
     <t>动作列表</t>
   </si>
   <si>
-    <t>此动画文件所包含的动作列表</t>
+    <t>此动画文件所包含的动作列表。</t>
   </si>
   <si>
-    <t>播放：播放当前动作列表所选择的动作</t>
+    <t>播放：播放当前动作列表所选择的动作。</t>
   </si>
   <si>
-    <t>停止：停止播放动画</t>
+    <t>停止：停止播放动画。</t>
   </si>
   <si>
     <t>声音</t>
   </si>
   <si>
-    <t>音效组件不是一个渲染组件，对应cocos2d-x CocosDenshion，支持mp3和wav格式（为全平台考虑）文件</t>
+    <t>音效组件不是一个渲染组件，对应cocos2d-x CocosDenshion，支持mp3和wav格式（为全平台考虑）文件。</t>
   </si>
   <si>
-    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCComAudio）</t>
+    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCComAudio）。</t>
   </si>
   <si>
-    <t>mp3和wav文件的路径</t>
+    <t>mp3和wav文件的路径。</t>
   </si>
   <si>
     <t>循环</t>
   </si>
   <si>
-    <t>设置是否循环播放</t>
+    <t>设置是否循环播放。</t>
   </si>
   <si>
     <t>播放控制</t>
   </si>
   <si>
-    <t>播放：播放音效</t>
+    <t>播放：播放音效。</t>
   </si>
   <si>
-    <t>停止：停止播放音效</t>
+    <t>停止：停止播放音效。</t>
   </si>
   <si>
     <t>UI</t>
   </si>
   <si>
-    <t>UI组件是一个渲染组件，对应cocos2d-x extension下面的CocoGUILIB，用于显示Cocostudio UI编辑器导出的json格式和exportjson格式的动画文件</t>
+    <t>UI组件是一个渲染组件，对应cocos2d-x extension下面的CocoGUILIB，用于加载Cocostudio UI编辑器导出的json格式和exportjson格式的动画文件。</t>
   </si>
   <si>
-    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（GUIComponent）</t>
+    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（GUIComponent）。</t>
   </si>
   <si>
-    <t>json（碎图）和exportjson(合图)文件的路径</t>
+    <t>json（碎图）和exportjson(合图)文件的路径。</t>
   </si>
   <si>
     <t>属性</t>
   </si>
   <si>
-    <t>UI组件不是一个渲染组件，用于记录Cocostudio 数据编辑器导出的json格式的数据文件</t>
+    <t>自定义属性不是一个渲染组件，用于加载Cocostudio 数据编辑器导出的json格式的属性数据文件。</t>
   </si>
   <si>
-    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCComAttribute）</t>
+    <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCComAttribute）。</t>
   </si>
   <si>
-    <t>json数据文件的路径</t>
+    <t>json数据文件的路径。</t>
   </si>
 </sst>
 </file>
@@ -176,10 +176,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -651,8 +651,8 @@
   <sheetPr/>
   <dimension ref="A1:HR38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:E37"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/Scene编辑器组件.xlsx
+++ b/Scene编辑器组件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20360" windowHeight="8980" activeTab="1"/>
+    <workbookView windowWidth="27560" windowHeight="12560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <t>编辑器的简介</t>
   </si>
   <si>
-    <t>场景编辑器基于组件思想进行设计，组件代表一个具体的功能，游戏对象可以通过不同功能的组件组合而成。</t>
+    <t>场景编辑器基于组件思想进行设计，组件代表一个具体的功能，空对象可以通过不同功能的组件挂载组合而成游戏对象。</t>
   </si>
   <si>
     <t>组件名称名称</t>
@@ -51,7 +51,7 @@
     <t>精灵</t>
   </si>
   <si>
-    <t>挂接精灵组件之后，游戏对象获得了一个渲染png图片的功能，变成了一个png对象。</t>
+    <t>精灵组件包含了渲染png图片的功能，挂接精灵组件之后，空对象变成了一个png对象。</t>
   </si>
   <si>
     <t>名字</t>
@@ -69,7 +69,7 @@
     <t>地图</t>
   </si>
   <si>
-    <t>挂载地图组件之后，游戏对象获得了一个渲染tmx格式的地图文件的功能，变成了地图对象。</t>
+    <t>地图组件包含了渲染tmx格式地图文件的功能，挂载地图组件之后，空对象变成了地图对象。</t>
   </si>
   <si>
     <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCTMXTiledMap）。</t>
@@ -81,7 +81,7 @@
     <t>粒子</t>
   </si>
   <si>
-    <t>挂载粒子组件之后，游戏对象获得了一个渲染plist格式粒子文件的功能，变成了粒子对象。</t>
+    <t>粒子组件包含了渲染pliat格式粒子文件的功能，挂载粒子组件之后，空对象变成了粒子对象。</t>
   </si>
   <si>
     <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCParticleSystemQuad）。</t>
@@ -102,7 +102,7 @@
     <t>骨骼</t>
   </si>
   <si>
-    <t>挂载骨骼动画组件之后，游戏对象获得了可以渲染骨骼动画的功能，变成了一个动画对象。（骨骼动画是由Cocostudio动画编辑器制作导出）</t>
+    <t>骨骼动画组件包含了渲染骨骼动画的功能，挂载骨骼动画组件之后，空对象变成了一个动画对象。（骨骼动画是由Cocostudio动画编辑器制作导出）</t>
   </si>
   <si>
     <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCArmature）。</t>
@@ -126,7 +126,7 @@
     <t>声音</t>
   </si>
   <si>
-    <t>挂载音效组件后，游戏对象获得可以播放mp3和wav格式音效的功能，变成了一个音效对象。</t>
+    <t>音效组件包含了播放mp3和wav格式音效的功能，挂载音效组件后，空对象变成了一个音效对象。</t>
   </si>
   <si>
     <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCComAudio）。</t>
@@ -153,7 +153,7 @@
     <t>UI</t>
   </si>
   <si>
-    <t>挂载UI组件后，游戏对象获得可以渲染ui控件的功能，变成一个ui对象。</t>
+    <t>ui组件包含了渲染ui控件的功能，挂载ui组件后，空对象变成一个ui对象。</t>
   </si>
   <si>
     <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（GUIComponent）。</t>
@@ -165,7 +165,7 @@
     <t>属性</t>
   </si>
   <si>
-    <t>挂载自定义属性组件后，游戏对象获得了加载数据json文件的功能，变成了一个有逻辑属性的对象。</t>
+    <t>自定义属性组件包含了加载数据json文件的功能，挂载自定义属性组件后，空对象变成了一个有逻辑属性的对象。</t>
   </si>
   <si>
     <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCComAttribute）。</t>
@@ -179,10 +179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -657,8 +657,8 @@
   <sheetPr/>
   <dimension ref="A1:HR41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D3"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/Scene编辑器组件.xlsx
+++ b/Scene编辑器组件.xlsx
@@ -81,7 +81,7 @@
     <t>粒子</t>
   </si>
   <si>
-    <t>粒子组件包含了渲染pliat格式粒子文件的功能，挂载粒子组件之后，空对象变成了粒子对象。</t>
+    <t>粒子组件包含了渲染plist格式粒子文件的功能，挂载粒子组件之后，空对象变成了粒子对象。</t>
   </si>
   <si>
     <t>组件名称，在程序中可以通过此名称获取组件（getComponent），组件名称可以被修改，组件的默认名称（CCParticleSystemQuad）。</t>
@@ -179,10 +179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -657,8 +657,8 @@
   <sheetPr/>
   <dimension ref="A1:HR41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
